--- a/0 info/0/zone_id.xlsx
+++ b/0 info/0/zone_id.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\hrmtmss\1. database\info\0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\laraveladmin\0 info\0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAECE9F-5DBD-4B0A-A772-CB9CAC023F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09103D12-F547-4BFC-9C32-C5FD0A7210B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0C8CE925-1E0D-45E3-8A7D-084CECF42E9C}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Zone Name</t>
   </si>
   <si>
-    <t>Operation ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bogra Central </t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>N/I</t>
+  </si>
+  <si>
+    <t>Domain_id</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,12 +562,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>11</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>11</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>11</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>12</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>13</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>13</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>13</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>14</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>14</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>15</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>15</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>15</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>15</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>16</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>16</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>16</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>17</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>17</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>17</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>17</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>18</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>18</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>18</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>18</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>25</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>26</v>
